--- a/resources/experiment 1/metrics/MAPE/incidence/Retinopatía proliferativa (INC).xlsx
+++ b/resources/experiment 1/metrics/MAPE/incidence/Retinopatía proliferativa (INC).xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2359532929403400</v>
+        <v>2359532929403399</v>
       </c>
       <c r="C2" t="n">
         <v>2359532929403401</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05029282248496466</v>
+        <v>0.04685285517212339</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05017163645229555</v>
+        <v>0.04497891964514411</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05017163645229555</v>
+        <v>31884639615374.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58636606731787.1</v>
+        <v>0.04531815599783307</v>
       </c>
       <c r="C4" t="n">
-        <v>58636606731787.05</v>
+        <v>0.04321401098607317</v>
       </c>
       <c r="D4" t="n">
-        <v>58636606731787.05</v>
+        <v>0.07403079416724975</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307462079323885.7</v>
+        <v>57485378475428.41</v>
       </c>
       <c r="C5" t="n">
-        <v>294170500929486.5</v>
+        <v>12137759413514.89</v>
       </c>
       <c r="D5" t="n">
-        <v>294170500929486.5</v>
+        <v>28950205440960.89</v>
       </c>
     </row>
   </sheetData>
